--- a/doc_new/4.服务器配置文档/通关掉落表.xlsx
+++ b/doc_new/4.服务器配置文档/通关掉落表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20505" windowHeight="11685"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="template_gamebyfalling" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>字段名称</t>
   </si>
@@ -87,6 +87,10 @@
     <t>为空不给</t>
   </si>
   <si>
+    <t>为空不给
+【金币】、【地图经验】、【元素精通】掉落=正常掉落*（击杀boss）/（总boss数量）数量</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -138,7 +142,10 @@
     <t>end_times</t>
   </si>
   <si>
-    <t>钻石</t>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>100*(n-100)</t>
   </si>
   <si>
     <t>symbol</t>
@@ -150,6 +157,9 @@
     <t>e.g.</t>
   </si>
   <si>
+    <t>4000+100*(n-200)</t>
+  </si>
+  <si>
     <t>`+`</t>
   </si>
   <si>
@@ -159,6 +169,9 @@
     <t>1+2 = 3</t>
   </si>
   <si>
+    <t>4000+100*(n-300)</t>
+  </si>
+  <si>
     <t>`^`</t>
   </si>
   <si>
@@ -168,6 +181,9 @@
     <t>2^3 = 8, 3^2 = 9</t>
   </si>
   <si>
+    <t>4000+100*(n-400)</t>
+  </si>
+  <si>
     <t>`e`</t>
   </si>
   <si>
@@ -177,6 +193,9 @@
     <t>1.2e3 = 1200，1.2e-2 = 0.012</t>
   </si>
   <si>
+    <t>4000+100*(n-500)</t>
+  </si>
+  <si>
     <t>`()`</t>
   </si>
   <si>
@@ -186,6 +205,9 @@
     <t>(2+3)*4 = 20</t>
   </si>
   <si>
+    <t>地图经验</t>
+  </si>
+  <si>
     <t>`_`</t>
   </si>
   <si>
@@ -229,6 +251,9 @@
   </si>
   <si>
     <t>tan(pi/4) = 1</t>
+  </si>
+  <si>
+    <t>祈福卷轴</t>
   </si>
   <si>
     <t>`cot(x)`</t>
@@ -1354,7 +1379,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1365,7 +1390,7 @@
     <col min="5" max="5" width="27.75" customWidth="1"/>
     <col min="6" max="7" width="15.25" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
-    <col min="9" max="9" width="43.625" customWidth="1"/>
+    <col min="9" max="9" width="46.625" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="16" width="12.625" customWidth="1"/>
@@ -1438,8 +1463,8 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>9</v>
@@ -1463,44 +1488,44 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1509,46 +1534,46 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1563,22 +1588,22 @@
         <v>101</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>120</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -1596,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -1613,22 +1638,22 @@
         <v>201</v>
       </c>
       <c r="D6">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>120</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
@@ -1646,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -1663,22 +1688,22 @@
         <v>301</v>
       </c>
       <c r="D7">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>120</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -1696,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -1713,22 +1738,22 @@
         <v>401</v>
       </c>
       <c r="D8">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>120</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
@@ -1746,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -1763,22 +1788,22 @@
         <v>501</v>
       </c>
       <c r="D9">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>120</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
@@ -1796,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -1810,25 +1835,25 @@
         <v>1006</v>
       </c>
       <c r="C10">
-        <v>601</v>
+        <v>101</v>
       </c>
       <c r="D10">
-        <v>605</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>120</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
@@ -1846,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1860,25 +1885,25 @@
         <v>1007</v>
       </c>
       <c r="C11">
-        <v>701</v>
+        <v>201</v>
       </c>
       <c r="D11">
-        <v>705</v>
+        <v>264</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>120</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
@@ -1896,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -1910,25 +1935,25 @@
         <v>1008</v>
       </c>
       <c r="C12">
-        <v>801</v>
+        <v>301</v>
       </c>
       <c r="D12">
-        <v>805</v>
+        <v>364</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>120</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
@@ -1946,167 +1971,239 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C13">
+        <v>401</v>
+      </c>
+      <c r="D13">
+        <v>464</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="16:18">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
       <c r="P13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="16:18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C14">
+        <v>501</v>
+      </c>
+      <c r="D14">
+        <v>564</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="16:18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="4">
+        <v>1011</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>564</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="16:18">
       <c r="P16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="16:18">
       <c r="P17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="16:18">
       <c r="P18" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="16:18">
       <c r="P19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="16:18">
       <c r="P20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="R20" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="16:18">
       <c r="P21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Q21" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="16:18">
       <c r="P22" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q22" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="R22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="16:18">
       <c r="P23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q23" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="R23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="16:18">
       <c r="P24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="Q24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="R24" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="16:18">
       <c r="P35" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="R35" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="16:18">
       <c r="P39" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="Q39" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="R39" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/doc_new/4.服务器配置文档/通关掉落表.xlsx
+++ b/doc_new/4.服务器配置文档/通关掉落表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="template_gamebyfalling" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>字段名称</t>
   </si>
@@ -43,13 +43,13 @@
     <t>小于等于难度x可掉落</t>
   </si>
   <si>
-    <t>永久首次通关获得</t>
+    <t>永久首次通关获得数量</t>
   </si>
   <si>
     <t>物品名称</t>
   </si>
   <si>
-    <t>是否每日首通</t>
+    <t>是否每日首通(未实装)</t>
   </si>
   <si>
     <t>胜利个数计算公式</t>
@@ -84,11 +84,12 @@
 2 每日任意难度首通(最多4次)</t>
   </si>
   <si>
-    <t>为空不给</t>
-  </si>
-  <si>
-    <t>为空不给
-【金币】、【地图经验】、【元素精通】掉落=正常掉落*（击杀boss）/（总boss数量）数量</t>
+    <t>为空不给 $n代表难度
+$kb代表击杀boss $mb代表的总boss数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为空不给
+【金币】、【地图经验】、【元素精通】掉落=正常掉落*(击杀boss)/(总boss数量)数量 </t>
   </si>
   <si>
     <t>数据类型</t>
@@ -145,7 +146,10 @@
     <t>金币</t>
   </si>
   <si>
-    <t>100*(n-100)</t>
+    <t>100*($n-100)</t>
+  </si>
+  <si>
+    <t>(100*($n-100))*$kb/$mb</t>
   </si>
   <si>
     <t>symbol</t>
@@ -157,7 +161,10 @@
     <t>e.g.</t>
   </si>
   <si>
-    <t>4000+100*(n-200)</t>
+    <t>4000+100*($n-200)</t>
+  </si>
+  <si>
+    <t>(4000+100*($n-200))*$kb/$mb</t>
   </si>
   <si>
     <t>`+`</t>
@@ -169,7 +176,10 @@
     <t>1+2 = 3</t>
   </si>
   <si>
-    <t>4000+100*(n-300)</t>
+    <t>4000+100*($n-300)</t>
+  </si>
+  <si>
+    <t>(4000+100*($n-300))*$kb/$mb</t>
   </si>
   <si>
     <t>`^`</t>
@@ -181,7 +191,10 @@
     <t>2^3 = 8, 3^2 = 9</t>
   </si>
   <si>
-    <t>4000+100*(n-400)</t>
+    <t>4000+100*($n-400)</t>
+  </si>
+  <si>
+    <t>(4000+100*($n-400))*$kb/$mb</t>
   </si>
   <si>
     <t>`e`</t>
@@ -193,7 +206,10 @@
     <t>1.2e3 = 1200，1.2e-2 = 0.012</t>
   </si>
   <si>
-    <t>4000+100*(n-500)</t>
+    <t>4000+100*($n-500)</t>
+  </si>
+  <si>
+    <t>(4000+100*($n-500))*$kb/$mb</t>
   </si>
   <si>
     <t>`()`</t>
@@ -265,103 +281,7 @@
     <t>cot(pi/4) = 1</t>
   </si>
   <si>
-    <t>`sec(x)`</t>
-  </si>
-  <si>
-    <t>正割函数，secant</t>
-  </si>
-  <si>
-    <t>sec(0) = 1</t>
-  </si>
-  <si>
-    <t>`csc(x)`</t>
-  </si>
-  <si>
-    <t>余割函数，cosecant</t>
-  </si>
-  <si>
-    <t>csc(pi/2) = 1</t>
-  </si>
-  <si>
-    <t>`abs(x)`</t>
-  </si>
-  <si>
-    <t>绝对值，absolute value</t>
-  </si>
-  <si>
-    <t>abs(-6) = 6</t>
-  </si>
-  <si>
-    <t>`ceil(x)`</t>
-  </si>
-  <si>
-    <t>向上取整</t>
-  </si>
-  <si>
-    <t>ceil(4.2) = 5</t>
-  </si>
-  <si>
-    <t>`floor(x)`</t>
-  </si>
-  <si>
-    <t>向下取整</t>
-  </si>
-  <si>
-    <t>floor(4.8) = 4</t>
-  </si>
-  <si>
-    <t>`round(x)`</t>
-  </si>
-  <si>
-    <t>四舍五入取整</t>
-  </si>
-  <si>
-    <t>round(4.4) = 4, round(4.5) = 5</t>
-  </si>
-  <si>
-    <t>`sqrt(x)`</t>
-  </si>
-  <si>
-    <t>平方根，square root</t>
-  </si>
-  <si>
-    <t>sqrt(4) = 2</t>
-  </si>
-  <si>
-    <t>`cbrt(x)`</t>
-  </si>
-  <si>
-    <t>立方根，cube root</t>
-  </si>
-  <si>
-    <t>cbrt(27) = 3</t>
-  </si>
-  <si>
-    <t>`max(x, y)`</t>
-  </si>
-  <si>
-    <t>x, y 中的较大值</t>
-  </si>
-  <si>
-    <t>max(2, 3) = 3</t>
-  </si>
-  <si>
-    <t>`min(x, y)`</t>
-  </si>
-  <si>
-    <t>x, y 中的较小值</t>
-  </si>
-  <si>
-    <t>min(2, 3) = 2</t>
-  </si>
-  <si>
-    <t>`randomint(x, y)`</t>
-  </si>
-  <si>
-    <t>随机x-y中一个整数 y必须大于等于x</t>
-  </si>
-  <si>
-    <t>randomint(1,5) = 4,randomint(1,5) = 2,</t>
+    <t>元素大陆首通点</t>
   </si>
 </sst>
 </file>
@@ -1374,12 +1294,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,8 +1307,9 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="7" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="48.875" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="35.5" customWidth="1"/>
     <col min="9" max="9" width="46.625" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
@@ -1460,7 +1381,7 @@
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -1603,10 +1524,10 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1621,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -1650,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1671,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -1700,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1721,13 +1642,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -1750,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J8" s="4">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1771,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -1800,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <v>1003</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1821,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -1844,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1853,10 +1774,10 @@
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="4">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1871,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1894,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1921,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -1944,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1971,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -1994,25 +1915,40 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1004</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -2029,25 +1965,40 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>57</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1004</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -2064,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2075,135 +2026,79 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15" s="4">
+        <v>1201</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="16" spans="16:18">
+    <row r="16" customFormat="1" spans="2:18">
+      <c r="B16" s="4">
+        <v>1012</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>20202</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
       <c r="P16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="16:18">
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" t="s">
         <v>81</v>
-      </c>
-      <c r="R17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="16:18">
-      <c r="P18" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="16:18">
-      <c r="P19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>87</v>
-      </c>
-      <c r="R19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="16:18">
-      <c r="P20" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="16:18">
-      <c r="P21" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="16:18">
-      <c r="P22" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="16:18">
-      <c r="P23" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>99</v>
-      </c>
-      <c r="R23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="16:18">
-      <c r="P24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>102</v>
-      </c>
-      <c r="R24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="16:18">
-      <c r="P35" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>105</v>
-      </c>
-      <c r="R35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="16:18">
-      <c r="P39" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>108</v>
-      </c>
-      <c r="R39" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/doc_new/4.服务器配置文档/通关掉落表.xlsx
+++ b/doc_new/4.服务器配置文档/通关掉落表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="template_gamebyfalling" sheetId="1" r:id="rId1"/>
@@ -1296,10 +1296,10 @@
   <sheetPr/>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1369,7 +1369,7 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="67.5" spans="1:18">
+    <row r="2" s="1" customFormat="1" ht="54" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>

--- a/doc_new/4.服务器配置文档/通关掉落表.xlsx
+++ b/doc_new/4.服务器配置文档/通关掉落表.xlsx
@@ -269,7 +269,7 @@
     <t>tan(pi/4) = 1</t>
   </si>
   <si>
-    <t>祈福卷轴</t>
+    <t>钻石</t>
   </si>
   <si>
     <t>`cot(x)`</t>
@@ -1299,7 +1299,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2021,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>20000</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>1201</v>
+        <v>1005</v>
       </c>
       <c r="K15">
         <v>0</v>

--- a/doc_new/4.服务器配置文档/通关掉落表.xlsx
+++ b/doc_new/4.服务器配置文档/通关掉落表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>字段名称</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>地图经验</t>
+  </si>
+  <si>
+    <t>500*($n-100)</t>
+  </si>
+  <si>
+    <t>(500*($n-100))*$kb/$mb</t>
   </si>
   <si>
     <t>`_`</t>
@@ -1771,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J10" s="4">
         <v>1004</v>
@@ -1792,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1842,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -1892,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:18">
@@ -1942,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:18">
@@ -1992,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -2015,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2042,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:18">
@@ -2065,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2092,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
